--- a/scripts/test_secondary_img/index.xlsx
+++ b/scripts/test_secondary_img/index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pan/projects/auto-key/scripts/test_secondary_img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227F62C6-29D7-0F47-B55C-9E5B6F6F3BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5CC95C-2636-C549-9550-5A4FA2D088BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="6220" windowWidth="28800" windowHeight="12340" xr2:uid="{5B56EB7D-8F86-4E8F-B448-377A106F7C84}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{5B56EB7D-8F86-4E8F-B448-377A106F7C84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,19 +48,23 @@
     <t>纵向偏移量 offset_y</t>
   </si>
   <si>
-    <t>指令类型：1. 单击 2. 双击 3. 右键 4. 输入 5. 等待 6. 滚轮 7. 快捷键 8. 按住/拖动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seach.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>auto-key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,17 +432,21 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -454,27 +462,30 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="D2">
+        <v>-230</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
